--- a/SRA_Accession_list.xlsx
+++ b/SRA_Accession_list.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="1660" windowWidth="19160" windowHeight="10520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14080" yWindow="4160" windowWidth="18520" windowHeight="10520" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,103 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
-  <si>
-    <t>chickpeas</t>
-  </si>
-  <si>
-    <t>black beans</t>
-  </si>
-  <si>
-    <t>kidney beans</t>
-  </si>
-  <si>
-    <t>edamame</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>protein powder</t>
-  </si>
-  <si>
-    <t>tru-nut powder</t>
-  </si>
-  <si>
-    <t>brown rice</t>
-  </si>
-  <si>
-    <t>white rice</t>
-  </si>
-  <si>
-    <t>quinoa</t>
-  </si>
-  <si>
-    <t>oats</t>
-  </si>
-  <si>
-    <t>ezekiel bread</t>
-  </si>
-  <si>
-    <t>red lentils</t>
-  </si>
-  <si>
-    <t>brown lentils</t>
-  </si>
-  <si>
-    <t>wheat flour</t>
-  </si>
-  <si>
-    <t>ripe banana</t>
-  </si>
-  <si>
-    <t>unripe banana</t>
-  </si>
-  <si>
-    <t>blackberry</t>
-  </si>
-  <si>
-    <t>raspberry</t>
-  </si>
-  <si>
-    <t>blueberry</t>
-  </si>
-  <si>
-    <t>strawberry</t>
-  </si>
-  <si>
-    <t>mango</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>canteloupe</t>
-  </si>
-  <si>
-    <t>grapes</t>
-  </si>
-  <si>
-    <t>spinach</t>
-  </si>
-  <si>
-    <t>carrots</t>
-  </si>
-  <si>
-    <t>tomatoes</t>
-  </si>
-  <si>
-    <t>lettuce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brocoli </t>
-  </si>
-  <si>
-    <t>red cabbage</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
   <si>
     <t>Hagfish (Myxini)</t>
   </si>
@@ -696,400 +599,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>4000</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <v>20000</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I5">
         <v>5000</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I6">
         <v>9000</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1097,232 +822,232 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>89</v>
-      </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>89</v>
-      </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1345,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B5"/>
   <sheetViews>
@@ -1357,25 +1082,25 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/SRA_Accession_list.xlsx
+++ b/SRA_Accession_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14080" yWindow="4160" windowWidth="18520" windowHeight="10520" tabRatio="500"/>
+    <workbookView xWindow="-1180" yWindow="3500" windowWidth="30040" windowHeight="13420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
   <si>
     <t>Hagfish (Myxini)</t>
   </si>
@@ -48,30 +48,9 @@
     <t>Study</t>
   </si>
   <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>Assay Type</t>
-  </si>
-  <si>
-    <t>Instrument</t>
-  </si>
-  <si>
-    <t>LibraryLayout</t>
-  </si>
-  <si>
-    <t>Mbases</t>
-  </si>
-  <si>
     <t>Species</t>
   </si>
   <si>
-    <t>Dev stage</t>
-  </si>
-  <si>
-    <t>tissue</t>
-  </si>
-  <si>
     <t>intestine, kidney, blood, gills</t>
   </si>
   <si>
@@ -84,12 +63,6 @@
     <t>Illumina HiSeq 2000</t>
   </si>
   <si>
-    <t>RNA Seq</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
     <t>SRP125828</t>
   </si>
   <si>
@@ -129,12 +102,6 @@
     <t>larval, metamorphosis, juvenile, and unlisted</t>
   </si>
   <si>
-    <t>900-25000</t>
-  </si>
-  <si>
-    <t>25000-50000</t>
-  </si>
-  <si>
     <t>SRP101364</t>
   </si>
   <si>
@@ -150,12 +117,6 @@
     <t>Illumina HiSeq 1000</t>
   </si>
   <si>
-    <t>RNA Seq (cDNA)</t>
-  </si>
-  <si>
-    <t>5000-24000</t>
-  </si>
-  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -168,9 +129,6 @@
     <t>whole embryo + head (juvenile)</t>
   </si>
   <si>
-    <t>juvenile + Dean Stage 28-45</t>
-  </si>
-  <si>
     <t>embryo</t>
   </si>
   <si>
@@ -198,21 +156,12 @@
     <t>peripheral olfactory organ, olfactory bulb, fore brain</t>
   </si>
   <si>
-    <t>3000-4000</t>
-  </si>
-  <si>
-    <t>RNA Seq (size fractionation)</t>
-  </si>
-  <si>
     <t>SRP093856</t>
   </si>
   <si>
     <t>Illumina Genome Analyzer Iix + Illumina HiSeq 2000</t>
   </si>
   <si>
-    <t>6000-10000</t>
-  </si>
-  <si>
     <t>testis, ovary, notochord, muscle, kidney, heart</t>
   </si>
   <si>
@@ -234,32 +183,125 @@
     <t>single</t>
   </si>
   <si>
-    <t>RNA Seq (cDNA an)</t>
-  </si>
-  <si>
-    <t>2000-4000</t>
-  </si>
-  <si>
     <t>SRP067409</t>
   </si>
   <si>
-    <t>700-4000</t>
-  </si>
-  <si>
     <t>Illumina HiSeq 4000</t>
   </si>
   <si>
-    <t>50k</t>
-  </si>
-  <si>
     <t>SRP063084</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/bioproject/PRJEB21290</t>
+  </si>
+  <si>
+    <t>juvenile head region+ Dean Stage 28-45</t>
+  </si>
+  <si>
+    <t>SRX2541845</t>
+  </si>
+  <si>
+    <t>SRR5234495</t>
+  </si>
+  <si>
+    <t>4.8 Gbp</t>
+  </si>
+  <si>
+    <t>Bases</t>
+  </si>
+  <si>
+    <t>SRR5226597</t>
+  </si>
+  <si>
+    <t>21.5Gbp</t>
+  </si>
+  <si>
+    <t>7.5Gbp</t>
+  </si>
+  <si>
+    <t>SRX2372741</t>
+  </si>
+  <si>
+    <t>SRR5051324</t>
+  </si>
+  <si>
+    <t>chose muscle</t>
+  </si>
+  <si>
+    <t>SRR4448928</t>
+  </si>
+  <si>
+    <t>9.8 Gbp</t>
+  </si>
+  <si>
+    <t>SRX2267405</t>
+  </si>
+  <si>
+    <t>chose brain</t>
+  </si>
+  <si>
+    <t>SRR3213612</t>
+  </si>
+  <si>
+    <t>SRR3213614</t>
+  </si>
+  <si>
+    <t>Carcharodon carcharias</t>
+  </si>
+  <si>
+    <t>juvenile female</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>13.8 Gbp</t>
+  </si>
+  <si>
+    <t>PRJNA313962</t>
+  </si>
+  <si>
+    <t> SRP071340</t>
+  </si>
+  <si>
+    <t>Urobatis jamaicensis</t>
+  </si>
+  <si>
+    <t>Illumina HiSeq 2500</t>
+  </si>
+  <si>
+    <t>7.6 Gbp</t>
+  </si>
+  <si>
+    <t>SRP071340</t>
+  </si>
+  <si>
+    <t>SRR</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Sequencing Instrument</t>
+  </si>
+  <si>
+    <t>Library Layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC Content </t>
+  </si>
+  <si>
+    <t>Developmental Stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tissue </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,13 +332,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -314,11 +387,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -599,471 +679,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.5" customWidth="1"/>
+    <col min="11" max="11" width="38.33203125" customWidth="1"/>
+    <col min="12" max="12" width="45" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3">
-        <v>4000</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>20000</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>5000</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>9000</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="J25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" t="s">
         <v>74</v>
       </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" t="s">
-        <v>45</v>
+      <c r="G26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="J26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D9" r:id="rId3"/>
-    <hyperlink ref="D16" r:id="rId4"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D18" r:id="rId4"/>
     <hyperlink ref="D3" r:id="rId5"/>
     <hyperlink ref="D4" r:id="rId6"/>
     <hyperlink ref="D6" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D8" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D11" r:id="rId12"/>
+    <hyperlink ref="D12" r:id="rId8"/>
+    <hyperlink ref="D7" r:id="rId9"/>
+    <hyperlink ref="D15" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D19" r:id="rId13"/>
+    <hyperlink ref="E18" r:id="rId14"/>
+    <hyperlink ref="F18" r:id="rId15"/>
+    <hyperlink ref="F6" r:id="rId16"/>
+    <hyperlink ref="E6" r:id="rId17"/>
+    <hyperlink ref="F26" r:id="rId18"/>
+    <hyperlink ref="F25" r:id="rId19"/>
+    <hyperlink ref="E25" r:id="rId20" tooltip="Link to BioProject"/>
+    <hyperlink ref="E26" r:id="rId21" tooltip="Link to BioProject"/>
+    <hyperlink ref="D26" r:id="rId22" tooltip="Link to SRA Study"/>
+    <hyperlink ref="D25" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
